--- a/artfynd/A 55854-2022.xlsx
+++ b/artfynd/A 55854-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94055143</v>
+        <v>94055279</v>
       </c>
       <c r="B3" t="n">
-        <v>96926</v>
+        <v>101928</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,38 +813,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222295</v>
+        <v>563</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vårstarr</t>
+          <t>Sanddraba</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carex caryophyllea</t>
+          <t>Draba nemorosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Latourr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stömstad, Mpd</t>
+          <t>Släda, 600 m S om, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626434.6428970041</v>
+        <v>626441.2940687061</v>
       </c>
       <c r="R3" t="n">
-        <v>6925367.372217922</v>
+        <v>6925461.250314044</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>sandig, hästbetad gräsmark</t>
+          <t>ängsbacke</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94055280</v>
+        <v>94055143</v>
       </c>
       <c r="B4" t="n">
-        <v>101928</v>
+        <v>96926</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>563</v>
+        <v>222295</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sanddraba</t>
+          <t>Vårstarr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Draba nemorosa</t>
+          <t>Carex caryophyllea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Latourr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94055279</v>
+        <v>94055280</v>
       </c>
       <c r="B5" t="n">
         <v>101928</v>
@@ -1079,14 +1079,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Släda, 600 m S om, Mpd</t>
+          <t>Stömstad, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626441.2940687061</v>
+        <v>626434.6428970041</v>
       </c>
       <c r="R5" t="n">
-        <v>6925461.250314044</v>
+        <v>6925367.372217922</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>ängsbacke</t>
+          <t>sandig, hästbetad gräsmark</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>

--- a/artfynd/A 55854-2022.xlsx
+++ b/artfynd/A 55854-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94055279</v>
+        <v>94055143</v>
       </c>
       <c r="B3" t="n">
-        <v>101928</v>
+        <v>96926</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,38 +813,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>563</v>
+        <v>222295</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sanddraba</t>
+          <t>Vårstarr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Draba nemorosa</t>
+          <t>Carex caryophyllea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Latourr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Släda, 600 m S om, Mpd</t>
+          <t>Stömstad, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626441.2940687061</v>
+        <v>626434.6428970041</v>
       </c>
       <c r="R3" t="n">
-        <v>6925461.250314044</v>
+        <v>6925367.372217922</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>ängsbacke</t>
+          <t>sandig, hästbetad gräsmark</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94055143</v>
+        <v>94055280</v>
       </c>
       <c r="B4" t="n">
-        <v>96926</v>
+        <v>101928</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222295</v>
+        <v>563</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vårstarr</t>
+          <t>Sanddraba</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carex caryophyllea</t>
+          <t>Draba nemorosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Latourr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94055280</v>
+        <v>94055279</v>
       </c>
       <c r="B5" t="n">
         <v>101928</v>
@@ -1079,14 +1079,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stömstad, Mpd</t>
+          <t>Släda, 600 m S om, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626434.6428970041</v>
+        <v>626441.2940687061</v>
       </c>
       <c r="R5" t="n">
-        <v>6925367.372217922</v>
+        <v>6925461.250314044</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>sandig, hästbetad gräsmark</t>
+          <t>ängsbacke</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
